--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2308240043</t>
+          <t>ZC2309060005</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2309060005</t>
+          <t>ZC2309080013</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2309080013</t>
+          <t>ZC2309080027</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2309080027</t>
+          <t>ZC2309110011</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2309110011</t>
+          <t>ZC2309120024</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2309120024</t>
+          <t>ZC2309150028</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2309150028</t>
+          <t>ZC2309180015</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2309080013</t>
+          <t>ZC2309220003</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2309220003</t>
+          <t>ZC2401150011</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2401150011</t>
+          <t>ZC2310270042</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2310270042</t>
+          <t>ZC2401160011</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2401160011</t>
+          <t>ZC2404290204</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">

--- a/data/import_excel/定量-结果表SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表SR样本导入模板E.xlsx
@@ -553,7 +553,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ZC2404290204</t>
+          <t>ZC2405210045</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
